--- a/外部設計関連/外部設計書_機能名 - プロフィール編集ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - プロフィール編集ページ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79840BE3-4FDF-4B40-B42A-74D48FDF5A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19568E-554E-4734-BF9E-558138723DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -265,6 +265,127 @@
   </si>
   <si>
     <t>「2.キャンセルボタン」をクリック</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>更新ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>キャンセルボタン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>update_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>cancel_button</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>navigationmenu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nav_ul</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input_submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>company</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1399,15 +1520,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>196452</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>45798</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:colOff>53578</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1422,8 +1543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3726656" y="3429000"/>
-          <a:ext cx="1607344" cy="250031"/>
+          <a:off x="3669108" y="3816111"/>
+          <a:ext cx="1593454" cy="249952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,15 +1583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>71597</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>49688</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1485,8 +1606,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3726656" y="3821906"/>
-          <a:ext cx="1619250" cy="250031"/>
+          <a:off x="3679031" y="3389154"/>
+          <a:ext cx="1601550" cy="242331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1643,6 +1764,559 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>キャンセル</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236061</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24260AA4-5938-41C2-8DD5-5987C2487070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3538061" y="2845594"/>
+          <a:ext cx="253999" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205898</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>205897</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53B4496-8651-43DB-80FE-676A240EF02A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3507898" y="3267869"/>
+          <a:ext cx="253999" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>223360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>23019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223359</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A356D868-3DC7-4831-8F77-D21274478C5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3525360" y="3642519"/>
+          <a:ext cx="253999" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90010</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90009</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5396970D-FFA0-458C-AA91-6233CC72829F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4154010" y="1588294"/>
+          <a:ext cx="253999" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>226535</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>153194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>226534</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905671AC-4B8B-4F24-98A2-C828D246AE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="734535" y="1867694"/>
+          <a:ext cx="253999" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180497</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>170657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180496</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>83503</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEF1DB0-04A2-4809-BBC6-D010D58443CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688497" y="2266157"/>
+          <a:ext cx="253999" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190022</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190021</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C00250-8264-48AE-89E0-031F928A89A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698022" y="5982494"/>
+          <a:ext cx="253999" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1974,13 +2648,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="AA83" sqref="AA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.6640625" style="1"/>
+    <col min="11" max="11" width="7.88671875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -5279,16 +5955,24 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16"/>
@@ -5321,16 +6005,24 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16"/>
@@ -5363,19 +6055,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -5383,11 +6085,15 @@
       <c r="T81" s="19"/>
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
+      <c r="W81" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
-      <c r="AA81" s="16"/>
+      <c r="AA81" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="16"/>
@@ -5405,19 +6111,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -5425,11 +6141,15 @@
       <c r="T82" s="19"/>
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
-      <c r="W82" s="16"/>
+      <c r="W82" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
-      <c r="AA82" s="16"/>
+      <c r="AA82" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="16"/>
@@ -5447,19 +6167,29 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -5467,11 +6197,15 @@
       <c r="T83" s="19"/>
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
-      <c r="W83" s="16"/>
+      <c r="W83" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
-      <c r="AA83" s="16"/>
+      <c r="AA83" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
       <c r="AD83" s="16"/>
@@ -5489,16 +6223,24 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>6</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16"/>
@@ -5531,19 +6273,29 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="15">
+        <v>7</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16"/>
+      <c r="O85" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -5573,19 +6325,29 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="15">
+        <v>8</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16"/>
+      <c r="O86" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>
@@ -5615,19 +6377,29 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="15">
+        <v>9</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
-      <c r="O87" s="16"/>
+      <c r="O87" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - プロフィール編集ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - プロフィール編集ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19568E-554E-4734-BF9E-558138723DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F73BC87-693D-445F-BCC0-E77530678915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2648,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="AA83" sqref="AA83"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/外部設計関連/外部設計書_機能名 - プロフィール編集ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - プロフィール編集ページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F73BC87-693D-445F-BCC0-E77530678915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9336EA-C7E8-4AC0-AB32-A10A8C1441D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -226,44 +226,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「更新完了メッセージ」を表示後、「マイページ」に遷移する。</t>
-    <rPh sb="1" eb="5">
-      <t>コウシンカンリョウ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ヒョウジゴ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>「編集中の内容を破棄します。」と表示した後、「マイページ」に遷移する。</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>「2.キャンセルボタン」をクリック</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -386,6 +348,14 @@
   </si>
   <si>
     <t>company</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「更新確認メッセージ」を表示した後、「OK」が選択された場合「マイページ」に遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「編集中の項目を破棄します。」というメッセージを出し、「OK」が選択された場合「マイページ」に遷移する。</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -2648,15 +2618,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="7.88671875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.625" style="1"/>
+    <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -4628,7 +4598,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="9" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -4713,7 +4683,7 @@
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -4758,7 +4728,7 @@
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="9" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
@@ -5959,19 +5929,19 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
@@ -6009,19 +5979,19 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
@@ -6059,24 +6029,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -6086,13 +6056,13 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -6115,24 +6085,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -6142,13 +6112,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -6171,24 +6141,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -6198,13 +6168,13 @@
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
       <c r="W83" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -6227,19 +6197,19 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
@@ -6277,24 +6247,24 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -6329,24 +6299,24 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -6381,24 +6351,24 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
       <c r="L87" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>

--- a/外部設計関連/外部設計書_機能名 - プロフィール編集ページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - プロフィール編集ページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9336EA-C7E8-4AC0-AB32-A10A8C1441D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39BB2C9-0CB9-4427-A2D1-53D6A3152AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -356,6 +356,66 @@
   </si>
   <si>
     <t>「編集中の項目を破棄します。」というメッセージを出し、「OK」が選択された場合「マイページ」に遷移する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password_verification</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード確認</t>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問・相談システム</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウダン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフィール編集</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>鈴木佑</t>
+    <rPh sb="0" eb="3">
+      <t>スズキタスク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードとパスワード確認入力欄が一致していなかったらパスワードが不一致の旨のアラートを表示して、プロフィール編集ページに戻る</t>
+    <rPh sb="11" eb="16">
+      <t>カクニンニュウリョクラン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>フイッチ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -731,7 +791,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -860,6 +920,9 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -883,15 +946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120968</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134779</xdr:rowOff>
+      <xdr:colOff>105092</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>182404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>120967</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>261936</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>168592</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -906,8 +969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="871062" y="1468279"/>
-          <a:ext cx="8630125" cy="5129688"/>
+          <a:off x="938530" y="1706404"/>
+          <a:ext cx="9927906" cy="5129688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1269,15 +1332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>148589</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:colOff>116839</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>148588</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>184309</xdr:rowOff>
+      <xdr:colOff>116838</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33496</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1292,8 +1355,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3398995" y="4462463"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="4053839" y="4692650"/>
+          <a:ext cx="277812" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1347,16 +1410,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>240030</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>59531</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>240029</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>162877</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>51752</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1371,8 +1434,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4490561" y="4441031"/>
-          <a:ext cx="250031" cy="293846"/>
+          <a:off x="5343843" y="4710906"/>
+          <a:ext cx="277812" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,15 +1553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>196452</xdr:colOff>
+      <xdr:colOff>172639</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>45798</xdr:rowOff>
+      <xdr:rowOff>77548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>53578</xdr:colOff>
+      <xdr:colOff>29765</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>107235</xdr:rowOff>
+      <xdr:rowOff>138985</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1513,8 +1576,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3669108" y="3816111"/>
-          <a:ext cx="1593454" cy="249952"/>
+          <a:off x="4387452" y="3887548"/>
+          <a:ext cx="1801813" cy="251937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1616,15 +1679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>166686</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:colOff>150811</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>21907</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>122873</xdr:rowOff>
+      <xdr:colOff>6032</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1639,8 +1702,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667124" y="4750594"/>
-          <a:ext cx="605314" cy="325279"/>
+          <a:off x="4365624" y="5076031"/>
+          <a:ext cx="688658" cy="325279"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,16 +1741,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>130969</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>194309</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>81439</xdr:rowOff>
+      <xdr:colOff>154622</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>73502</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1702,8 +1765,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4754404" y="4702969"/>
-          <a:ext cx="940593" cy="331470"/>
+          <a:off x="5567998" y="5076032"/>
+          <a:ext cx="1023937" cy="331470"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2239,8 +2302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="698022" y="5982494"/>
-          <a:ext cx="253999" cy="293846"/>
+          <a:off x="745647" y="5982494"/>
+          <a:ext cx="277812" cy="293846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2287,6 +2350,144 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190102</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>47228</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6476A41-33B8-463F-A55C-C854669C2CA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4404915" y="4341573"/>
+          <a:ext cx="1801813" cy="251937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード確認入力欄</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>143984</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>126365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2E82EA-200A-40FF-9123-64C44C9905C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4080984" y="4214019"/>
+          <a:ext cx="387828" cy="293846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2618,13 +2819,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.625" style="1"/>
+    <col min="1" max="3" width="3.625" style="1"/>
+    <col min="4" max="4" width="5.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="3.625" style="1"/>
+    <col min="7" max="7" width="3.625" style="1" customWidth="1"/>
+    <col min="8" max="10" width="3.625" style="1"/>
     <col min="11" max="11" width="7.875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="3.625" style="1"/>
   </cols>
@@ -2647,7 +2852,9 @@
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="N1" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
@@ -2660,7 +2867,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -2695,7 +2904,9 @@
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
@@ -2708,7 +2919,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="Y2" s="46">
+        <v>44356</v>
+      </c>
       <c r="Z2" s="41"/>
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>
@@ -4641,7 +4854,9 @@
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
@@ -6399,19 +6614,29 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="15">
+        <v>10</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16"/>
+      <c r="O88" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
